--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hidden</t>
   </si>
@@ -29,13 +29,28 @@
   <si>
     <t>input</t>
   </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,7 +404,7 @@
   <dimension ref="C1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,17 +415,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
@@ -587,6 +620,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,16 +90,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,17 +442,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S7"/>
+  <dimension ref="C1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="5" customWidth="1"/>
+    <col min="3" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="14" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
@@ -616,6 +663,75 @@
       <c r="P7">
         <f>EXP(P2)+EXP(P3)+EXP(P4)+EXP(P5)</f>
         <v>18.64738310367407</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9">
+        <f>$E9*C9+$E10*C10</f>
+        <v>-1.3</v>
+      </c>
+      <c r="I9">
+        <f>EXP(H9)/H$12</f>
+        <v>0.20000709787364221</v>
+      </c>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+      <c r="L9">
+        <f>K9-I9</f>
+        <v>-7.0978736421978272E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10">
+        <f>$F9*C9+$F10*C10</f>
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="I10">
+        <f>EXP(H10)/H$12</f>
+        <v>0.79999290212635787</v>
+      </c>
+      <c r="K10">
+        <v>0.8</v>
+      </c>
+      <c r="L10">
+        <f>K10-I10</f>
+        <v>7.0978736421700717E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12">
+        <f>EXP(H9)+EXP(H10)</f>
+        <v>1.3626106069805035</v>
       </c>
     </row>
   </sheetData>

--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python\Onto\Onto-genesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Network" sheetId="1" r:id="rId1"/>
+    <sheet name="Softmax train" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>hidden</t>
   </si>
@@ -34,6 +40,15 @@
   </si>
   <si>
     <t>loss</t>
+  </si>
+  <si>
+    <t>log error</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -150,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,14 +462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
@@ -485,10 +503,10 @@
       <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -742,13 +760,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="5" width="5" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2">
+        <f>$E2*C2+$E3*C3</f>
+        <v>-1.3</v>
+      </c>
+      <c r="J2">
+        <f>EXP(I2)/I$6</f>
+        <v>8.7538390709482966E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <f>L2-J2</f>
+        <v>1.2461609290517039E-2</v>
+      </c>
+      <c r="O2">
+        <f>-LN(J2)*L2</f>
+        <v>0.24356778308761096</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3">
+        <f>$F2*C2+$F3*C3</f>
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="J3">
+        <f>EXP(I3)/I$6</f>
+        <v>0.35013802997828081</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <f>L3-J3</f>
+        <v>0.44986197002171924</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="0">-LN(J3)*L3</f>
+        <v>0.83954226470088733</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4">
+        <f>$G2*C2+$G3*C3</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4">
+        <f>EXP(I4)/I$6</f>
+        <v>0.56232357931223631</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <f>L4-J4</f>
+        <v>-0.46232357931223633</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>5.7567783087610916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6">
+        <f>EXP(I2)+EXP(I3)+EXP(I4)</f>
+        <v>3.1132831072766045</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O2:O5)</f>
+        <v>1.1406778308761092</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -762,4 +924,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>hidden</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>gradients</t>
   </si>
 </sst>
 </file>
@@ -760,18 +766,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:O6"/>
+  <dimension ref="C1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="5.140625" customWidth="1"/>
+    <col min="3" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
@@ -781,6 +789,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -801,33 +812,33 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G2" s="3">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2">
         <f>$E2*C2+$E3*C3</f>
-        <v>-1.3</v>
+        <v>-1.29976</v>
       </c>
       <c r="J2">
         <f>EXP(I2)/I$6</f>
-        <v>8.7538390709482966E-2</v>
+        <v>9.414846633767153E-2</v>
       </c>
       <c r="L2">
         <v>0.1</v>
       </c>
       <c r="M2">
         <f>L2-J2</f>
-        <v>1.2461609290517039E-2</v>
+        <v>5.8515336623284758E-3</v>
       </c>
       <c r="O2">
         <f>-LN(J2)*L2</f>
-        <v>0.24356778308761096</v>
+        <v>0.23628823135743549</v>
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
@@ -838,30 +849,30 @@
         <v>-3</v>
       </c>
       <c r="F3" s="1">
-        <v>0.17249999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G3" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3">
         <f>$F2*C2+$F3*C3</f>
-        <v>8.6249999999999993E-2</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="J3">
         <f>EXP(I3)/I$6</f>
-        <v>0.35013802997828081</v>
+        <v>0.4273626564977312</v>
       </c>
       <c r="L3">
         <v>0.8</v>
       </c>
       <c r="M3">
         <f>L3-J3</f>
-        <v>0.44986197002171924</v>
+        <v>0.37263734350226885</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" si="0">-LN(J3)*L3</f>
-        <v>0.83954226470088733</v>
+        <v>0.68009785085948393</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
@@ -871,22 +882,22 @@
       <c r="H4" s="2"/>
       <c r="I4">
         <f>$G2*C2+$G3*C3</f>
-        <v>0.56000000000000005</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="J4">
         <f>EXP(I4)/I$6</f>
-        <v>0.56232357931223631</v>
+        <v>0.47848887716459737</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
         <f>L4-J4</f>
-        <v>-0.46232357931223633</v>
+        <v>-0.37848887716459734</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>5.7567783087610916E-2</v>
+        <v>7.3712231357435473E-2</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
@@ -901,11 +912,44 @@
       <c r="H6" s="2"/>
       <c r="I6">
         <f>EXP(I2)+EXP(I3)+EXP(I4)</f>
-        <v>3.1132831072766045</v>
+        <v>2.8953972286302694</v>
       </c>
       <c r="O6">
         <f>SUM(O2:O5)</f>
-        <v>1.1406778308761092</v>
+        <v>0.99009831357435485</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>C2*M2</f>
+        <v>1.1703067324656952E-3</v>
+      </c>
+      <c r="F9">
+        <f>C2*M3</f>
+        <v>7.4527468700453778E-2</v>
+      </c>
+      <c r="G9">
+        <f>C2*M4</f>
+        <v>-7.5697775432919473E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>C3*M2</f>
+        <v>2.9257668311642379E-3</v>
+      </c>
+      <c r="F10">
+        <f>C3*M3</f>
+        <v>0.18631867175113442</v>
+      </c>
+      <c r="G10">
+        <f>C3*M4</f>
+        <v>-0.18924443858229867</v>
       </c>
     </row>
   </sheetData>

--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
     <col min="13" max="14" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/4x3.xlsx
+++ b/4x3.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python\Onto\Onto-genesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -222,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,7 +464,7 @@
   <dimension ref="C1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:O10"/>
+  <dimension ref="C1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +783,7 @@
     <col min="15" max="15" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>9</v>
       </c>
@@ -807,46 +802,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1.0012000000000001</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F2" s="1">
         <v>0.09</v>
       </c>
       <c r="G2" s="3">
-        <v>0.63</v>
+        <v>-0.63</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2">
         <f>$E2*C2+$E3*C3</f>
-        <v>-1.29976</v>
+        <v>-0.2</v>
       </c>
       <c r="J2">
         <f>EXP(I2)/I$6</f>
-        <v>9.414846633767153E-2</v>
+        <v>0.21616446687338248</v>
       </c>
       <c r="L2">
         <v>0.1</v>
       </c>
       <c r="M2">
         <f>L2-J2</f>
-        <v>5.8515336623284758E-3</v>
+        <v>-0.11616446687338247</v>
       </c>
       <c r="O2">
         <f>-LN(J2)*L2</f>
-        <v>0.23628823135743549</v>
-      </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0.15317157403215534</v>
+      </c>
+      <c r="S2">
+        <v>0.26640000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>-3</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" s="1">
         <v>0.39</v>
@@ -857,99 +855,114 @@
       <c r="H3" s="2"/>
       <c r="I3">
         <f>$F2*C2+$F3*C3</f>
-        <v>0.21299999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="J3">
         <f>EXP(I3)/I$6</f>
-        <v>0.4273626564977312</v>
+        <v>0.38995819406023585</v>
       </c>
       <c r="L3">
         <v>0.8</v>
       </c>
       <c r="M3">
         <f>L3-J3</f>
-        <v>0.37263734350226885</v>
+        <v>0.41004180593976419</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" si="0">-LN(J3)*L3</f>
-        <v>0.68009785085948393</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0.75337259225724262</v>
+      </c>
+      <c r="S3">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
       <c r="H4" s="2"/>
       <c r="I4">
         <f>$G2*C2+$G3*C3</f>
-        <v>0.32600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
         <f>EXP(I4)/I$6</f>
-        <v>0.47848887716459737</v>
+        <v>0.39387733906638162</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
         <f>L4-J4</f>
-        <v>-0.37848887716459734</v>
+        <v>-0.29387733906638158</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>7.3712231357435473E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+        <v>9.3171574032155341E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.40949999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
         <f>EXP(I2)+EXP(I3)+EXP(I4)</f>
-        <v>2.8953972286302694</v>
+        <v>3.787536244601895</v>
       </c>
       <c r="O6">
         <f>SUM(O2:O5)</f>
-        <v>0.99009831357435485</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0.9997157403215533</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>C2*M2</f>
-        <v>1.1703067324656952E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>C2*M3</f>
-        <v>7.4527468700453778E-2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>C2*M4</f>
-        <v>-7.5697775432919473E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.3216</v>
+      </c>
+      <c r="Q9">
+        <v>0.316</v>
+      </c>
+      <c r="R9">
+        <v>0.36220000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>C3*M2</f>
-        <v>2.9257668311642379E-3</v>
+        <v>-0.11616446687338247</v>
       </c>
       <c r="F10">
         <f>C3*M3</f>
-        <v>0.18631867175113442</v>
+        <v>0.41004180593976419</v>
       </c>
       <c r="G10">
         <f>C3*M4</f>
-        <v>-0.18924443858229867</v>
+        <v>-0.29387733906638158</v>
       </c>
     </row>
   </sheetData>
